--- a/download/供应商.xlsx
+++ b/download/供应商.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>编号</t>
   </si>
@@ -25,7 +25,7 @@
     <t>联系人</t>
   </si>
   <si>
-    <t>电话</t>
+    <t>手机</t>
   </si>
   <si>
     <t>地址</t>
@@ -37,58 +37,52 @@
     <t>备注</t>
   </si>
   <si>
-    <t>上海铁洋运输有限公司</t>
-  </si>
-  <si>
-    <t>郭先生</t>
-  </si>
-  <si>
-    <t>13552855536</t>
-  </si>
-  <si>
-    <t>上海黄浦区</t>
+    <t>成都双宏贸易有限公司</t>
+  </si>
+  <si>
+    <t>李浩东</t>
+  </si>
+  <si>
+    <t>13855667752</t>
+  </si>
+  <si>
+    <t>成都市青羊区</t>
   </si>
   <si>
     <t>否</t>
   </si>
   <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>成都榕成贸易有限公司</t>
-  </si>
-  <si>
-    <t>刘先生</t>
-  </si>
-  <si>
-    <t>13855666856</t>
-  </si>
-  <si>
-    <t>成都武侯区</t>
-  </si>
-  <si>
-    <t>增加测试1</t>
-  </si>
-  <si>
-    <t>江苏顺航有限公司</t>
-  </si>
-  <si>
-    <t>张晓名</t>
-  </si>
-  <si>
-    <t>1356899856</t>
-  </si>
-  <si>
-    <t>江苏常州</t>
-  </si>
-  <si>
-    <t>测试123</t>
-  </si>
-  <si>
-    <t>增加测试123</t>
-  </si>
-  <si>
-    <t>123</t>
+    <t>合并后第一家</t>
+  </si>
+  <si>
+    <t>上海玉德进出口有限公司</t>
+  </si>
+  <si>
+    <t>刘记名</t>
+  </si>
+  <si>
+    <t>13956235569</t>
+  </si>
+  <si>
+    <t>上海浦东新区</t>
+  </si>
+  <si>
+    <t>第二家</t>
+  </si>
+  <si>
+    <t>广东刘记食品有限公司</t>
+  </si>
+  <si>
+    <t>刘德崇</t>
+  </si>
+  <si>
+    <t>13558698853</t>
+  </si>
+  <si>
+    <t>广东省广州市</t>
+  </si>
+  <si>
+    <t>第一家导入</t>
   </si>
 </sst>
 </file>
@@ -434,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +468,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -497,7 +491,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -520,7 +514,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -537,74 +531,8 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/download/供应商.xlsx
+++ b/download/供应商.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>编号</t>
   </si>
@@ -28,16 +28,31 @@
     <t>手机</t>
   </si>
   <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>停用</t>
+    <t>简称</t>
+  </si>
+  <si>
+    <t>公司地址</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>上海玉德进出口有限公司</t>
+    <t>大冶特殊钢股份有限公司</t>
+  </si>
+  <si>
+    <t>刘德崇</t>
+  </si>
+  <si>
+    <t>13558698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大冶特钢</t>
+  </si>
+  <si>
+    <t>湖北省黄石市西塞山区黄石大道316号</t>
+  </si>
+  <si>
+    <t>抚顺特殊钢股份有限公司</t>
   </si>
   <si>
     <t>刘记名</t>
@@ -46,31 +61,16 @@
     <t>13956235569</t>
   </si>
   <si>
-    <t>上海浦东新区</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>第二家</t>
-  </si>
-  <si>
-    <t>广东刘记食品有限公司</t>
-  </si>
-  <si>
-    <t>刘德崇</t>
-  </si>
-  <si>
-    <t>13558698853</t>
-  </si>
-  <si>
-    <t>广东省广州市</t>
-  </si>
-  <si>
-    <t>第一家导入测试</t>
-  </si>
-  <si>
-    <t>成都双宏贸易有限公司</t>
+    <t>抚顺特钢</t>
+  </si>
+  <si>
+    <t>辽宁省抚顺市望花区鞍山路东段８号</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>西宁特殊钢股份有限公司</t>
   </si>
   <si>
     <t>李浩东</t>
@@ -79,25 +79,10 @@
     <t>13855667759</t>
   </si>
   <si>
-    <t>成都市青羊区</t>
-  </si>
-  <si>
-    <t>合并后第一家</t>
-  </si>
-  <si>
-    <t>广东电子测试有限公司</t>
-  </si>
-  <si>
-    <t>张先生</t>
-  </si>
-  <si>
-    <t>13658556689</t>
-  </si>
-  <si>
-    <t>广东顺德</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve"> 西宁特钢</t>
+  </si>
+  <si>
+    <t>青海省西宁市柴达木路52</t>
   </si>
 </sst>
 </file>
@@ -443,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,8 +438,8 @@
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,7 +468,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -497,31 +482,28 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -543,34 +525,11 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
+      <c r="F4" t="s">
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
